--- a/standardizedIndicators.xlsx
+++ b/standardizedIndicators.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisihara\Box Sync\J Statistics Education\Hardship Index Paper\Note to DSS Editor\SupportingFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisihara\Box Sync\J Statistics Education\Hardship Index Paper\Note to DSS Editor\New Paper Version\SupportingFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19032" windowHeight="5124"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -704,13 +704,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" activeCellId="1" sqref="S1:T1048576 T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -828,13 +833,13 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>41.97</v>
+        <v>41.968229999999998</v>
       </c>
       <c r="T2">
-        <v>-87.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.724209999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -890,13 +895,13 @@
         <v>3</v>
       </c>
       <c r="S3">
-        <v>41.81</v>
+        <v>41.810929999999999</v>
       </c>
       <c r="T3">
-        <v>-87.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.726770000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -952,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>41.833300000000001</v>
+        <v>41.840829999999997</v>
       </c>
       <c r="T4">
-        <v>-87.633300000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.634320000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1014,13 +1019,13 @@
         <v>6</v>
       </c>
       <c r="S5">
-        <v>41.75</v>
+        <v>41.747549999999997</v>
       </c>
       <c r="T5">
-        <v>-87.71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.709980000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1076,13 +1081,13 @@
         <v>27</v>
       </c>
       <c r="S6">
-        <v>41.74</v>
+        <v>41.746589999999998</v>
       </c>
       <c r="T6">
-        <v>-87.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.657790000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1138,13 +1143,13 @@
         <v>82</v>
       </c>
       <c r="S7">
-        <v>41.9</v>
+        <v>41.896450000000002</v>
       </c>
       <c r="T7">
-        <v>-87.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.760270000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1200,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="S8">
-        <v>41.75</v>
+        <v>41.744280000000003</v>
       </c>
       <c r="T8">
-        <v>-87.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.586740000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1262,13 +1267,13 @@
         <v>2</v>
       </c>
       <c r="S9">
-        <v>41.94</v>
+        <v>41.942639999999997</v>
       </c>
       <c r="T9">
-        <v>-87.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.704400000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1324,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="S10">
-        <v>41.93</v>
+        <v>41.92895</v>
       </c>
       <c r="T10">
-        <v>-87.76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.765370000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1386,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>41.71</v>
+        <v>41.717610000000001</v>
       </c>
       <c r="T11">
-        <v>-87.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.674289999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1454,7 +1459,7 @@
         <v>-87.647499999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1510,13 +1515,13 @@
         <v>23</v>
       </c>
       <c r="S13">
-        <v>41.82</v>
+        <v>41.818280000000001</v>
       </c>
       <c r="T13">
-        <v>-87.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.700339999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1572,13 +1577,13 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>41.73</v>
+        <v>41.72974</v>
       </c>
       <c r="T14">
-        <v>-87.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.597160000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>-87.579700000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1696,13 +1701,13 @@
         <v>14</v>
       </c>
       <c r="S16">
-        <v>41.74</v>
+        <v>41.741370000000003</v>
       </c>
       <c r="T16">
         <v>-87.611699999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1758,13 +1763,13 @@
         <v>20</v>
       </c>
       <c r="S17">
-        <v>41.77</v>
+        <v>41.77364</v>
       </c>
       <c r="T17">
-        <v>-87.69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.694599999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1820,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>41.78</v>
+        <v>41.779589999999999</v>
       </c>
       <c r="T18">
-        <v>-87.76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.770229999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1888,7 +1893,7 @@
         <v>-87.620599999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1944,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>41.95</v>
+        <v>41.945540000000001</v>
       </c>
       <c r="T20">
-        <v>-87.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.806820000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2006,13 +2011,13 @@
         <v>21</v>
       </c>
       <c r="S21">
-        <v>41.88</v>
+        <v>41.879750000000001</v>
       </c>
       <c r="T21">
-        <v>-87.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.706019999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2068,13 +2073,13 @@
         <v>9</v>
       </c>
       <c r="S22">
-        <v>41.7</v>
+        <v>41.704999999999998</v>
       </c>
       <c r="T22">
-        <v>-87.56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.534940000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2130,13 +2135,13 @@
         <v>2</v>
       </c>
       <c r="S23">
-        <v>41.99</v>
+        <v>41.988059999999997</v>
       </c>
       <c r="T23">
-        <v>-87.66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.663730000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2192,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>42.01</v>
+        <v>42.008330000000001</v>
       </c>
       <c r="T24">
-        <v>-87.81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.814250000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2254,13 +2259,13 @@
         <v>29</v>
       </c>
       <c r="S25">
-        <v>41.78</v>
+        <v>41.778860000000002</v>
       </c>
       <c r="T25">
-        <v>-87.644999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.642030000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>-87.75</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2378,13 +2383,13 @@
         <v>2</v>
       </c>
       <c r="S27">
-        <v>41.81</v>
+        <v>41.810420000000001</v>
       </c>
       <c r="T27">
         <v>-87.6267</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2440,13 +2445,13 @@
         <v>11</v>
       </c>
       <c r="S28">
-        <v>41.79</v>
+        <v>41.796370000000003</v>
       </c>
       <c r="T28">
-        <v>-87.69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.695049999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2508,7 +2513,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2564,13 +2569,13 @@
         <v>9</v>
       </c>
       <c r="S30">
-        <v>41.81</v>
+        <v>41.81344</v>
       </c>
       <c r="T30">
-        <v>-87.62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.61797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2626,13 +2631,13 @@
         <v>22</v>
       </c>
       <c r="S31">
-        <v>41.76</v>
+        <v>41.76247</v>
       </c>
       <c r="T31">
-        <v>-87.61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.617800000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2688,13 +2693,13 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>41.66</v>
+        <v>41.655889999999999</v>
       </c>
       <c r="T32">
-        <v>-87.55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.547539999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2750,13 +2755,13 @@
         <v>3</v>
       </c>
       <c r="S33">
-        <v>41.92</v>
+        <v>41.925980000000003</v>
       </c>
       <c r="T33">
-        <v>-87.73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.735690000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2812,13 +2817,13 @@
         <v>30</v>
       </c>
       <c r="S34" s="3">
-        <v>41.88</v>
+        <v>41.900489999999998</v>
       </c>
       <c r="T34">
-        <v>-87.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.720780000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2874,13 +2879,13 @@
         <v>1</v>
       </c>
       <c r="S35">
-        <v>41.8</v>
+        <v>41.795250000000003</v>
       </c>
       <c r="T35">
-        <v>-87.59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.592609999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2936,13 +2941,13 @@
         <v>2</v>
       </c>
       <c r="S36">
-        <v>41.95</v>
+        <v>41.953960000000002</v>
       </c>
       <c r="T36">
-        <v>-87.73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.720489999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2998,13 +3003,13 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>41.98</v>
+        <v>41.978929999999998</v>
       </c>
       <c r="T37">
-        <v>-87.77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.769549999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3060,13 +3065,13 @@
         <v>4</v>
       </c>
       <c r="S38">
-        <v>41.81</v>
+        <v>41.809710000000003</v>
       </c>
       <c r="T38">
-        <v>-87.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.59639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3122,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>41.94</v>
+        <v>41.944119999999998</v>
       </c>
       <c r="T39">
-        <v>-87.65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.656260000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -3184,13 +3189,13 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <v>41.92</v>
+        <v>41.923430000000003</v>
       </c>
       <c r="T40">
-        <v>-87.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.749399999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3252,7 +3257,7 @@
         <v>-87.69</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>-87.706699999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -3370,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <v>41.85</v>
+        <v>41.875970000000002</v>
       </c>
       <c r="T43">
-        <v>-87.66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.618139999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3432,13 +3437,13 @@
         <v>7</v>
       </c>
       <c r="S44">
-        <v>41.83</v>
+        <v>41.850160000000002</v>
       </c>
       <c r="T44">
-        <v>-87.67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.670109999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3494,13 +3499,13 @@
         <v>4</v>
       </c>
       <c r="S45">
-        <v>41.93</v>
+        <v>41.830869999999997</v>
       </c>
       <c r="T45">
-        <v>-87.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.672550000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -3556,13 +3561,13 @@
         <v>1</v>
       </c>
       <c r="S46">
-        <v>41.69</v>
+        <v>41.930399999999999</v>
       </c>
       <c r="T46">
-        <v>-87.67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.798599999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -3618,13 +3623,13 @@
         <v>4</v>
       </c>
       <c r="S47">
-        <v>41.7</v>
+        <v>41.690620000000003</v>
       </c>
       <c r="T47">
-        <v>-87.71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.669889999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3680,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>41.9</v>
+        <v>41.697189999999999</v>
       </c>
       <c r="T48">
-        <v>-87.63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.708820000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3742,13 +3747,13 @@
         <v>5</v>
       </c>
       <c r="S49">
-        <v>41.857799999999997</v>
+        <v>41.900489999999998</v>
       </c>
       <c r="T49">
-        <v>-87.623900000000006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.631879999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -3804,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>41.87</v>
+        <v>41.858800000000002</v>
       </c>
       <c r="T50">
-        <v>-87.67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.62276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -3866,13 +3871,13 @@
         <v>15</v>
       </c>
       <c r="S51">
-        <v>41.81</v>
+        <v>41.878030000000003</v>
       </c>
       <c r="T51">
-        <v>-87.66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.675669999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3928,13 +3933,13 @@
         <v>18</v>
       </c>
       <c r="S52">
-        <v>41.95</v>
+        <v>41.810890000000001</v>
       </c>
       <c r="T52">
-        <v>-87.68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.664649999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -3990,13 +3995,13 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>41.86</v>
+        <v>41.951030000000003</v>
       </c>
       <c r="T53">
-        <v>-87.68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.683350000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -4052,13 +4057,13 @@
         <v>43</v>
       </c>
       <c r="S54">
-        <v>41.95</v>
+        <v>41.860489999999999</v>
       </c>
       <c r="T54">
-        <v>-87.68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.715599999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -4114,13 +4119,13 @@
         <v>1</v>
       </c>
       <c r="S55">
-        <v>41.98</v>
+        <v>41.984349999999999</v>
       </c>
       <c r="T55">
-        <v>-87.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.722120000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -4176,13 +4181,13 @@
         <v>1</v>
       </c>
       <c r="S56">
-        <v>41.82</v>
+        <v>41.985869999999998</v>
       </c>
       <c r="T56">
-        <v>-87.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.801990000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -4244,7 +4249,7 @@
         <v>-87.836699999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -4300,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <v>41.95</v>
+        <v>41.82441</v>
       </c>
       <c r="T58">
-        <v>-87.76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.602040000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -4362,13 +4367,13 @@
         <v>1</v>
       </c>
       <c r="S59">
-        <v>41.71</v>
+        <v>41.954729999999998</v>
       </c>
       <c r="T59">
-        <v>-87.62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.762</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -4424,13 +4429,13 @@
         <v>1</v>
       </c>
       <c r="S60">
-        <v>41.66</v>
+        <v>41.706389999999999</v>
       </c>
       <c r="T60">
-        <v>-87.61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.599019999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4486,13 +4491,13 @@
         <v>5</v>
       </c>
       <c r="S61">
-        <v>42.01</v>
+        <v>41.664239999999999</v>
       </c>
       <c r="T61">
-        <v>-87.67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.604579999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -4548,13 +4553,13 @@
         <v>4</v>
       </c>
       <c r="S62">
-        <v>41.71</v>
+        <v>42.009450000000001</v>
       </c>
       <c r="T62">
-        <v>-87.62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.669300000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -4610,13 +4615,13 @@
         <v>36</v>
       </c>
       <c r="S63">
-        <v>41.74</v>
+        <v>41.707790000000003</v>
       </c>
       <c r="T63">
-        <v>-87.55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.622820000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -4672,13 +4677,13 @@
         <v>20</v>
       </c>
       <c r="S64">
-        <v>41.71</v>
+        <v>41.742989999999999</v>
       </c>
       <c r="T64">
-        <v>-87.56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.554720000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -4734,13 +4739,13 @@
         <v>7</v>
       </c>
       <c r="S65">
-        <v>41.85</v>
+        <v>41.692169999999997</v>
       </c>
       <c r="T65">
-        <v>-87.71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.562960000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -4796,13 +4801,13 @@
         <v>7</v>
       </c>
       <c r="S66">
-        <v>41.76</v>
+        <v>41.845170000000003</v>
       </c>
       <c r="T66">
-        <v>-87.58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.711690000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -4864,7 +4869,7 @@
         <v>-87.627799999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -4920,13 +4925,13 @@
         <v>5</v>
       </c>
       <c r="S68">
-        <v>41.97</v>
+        <v>41.967700000000001</v>
       </c>
       <c r="T68">
-        <v>-87.66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.656289999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>-87.652699999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -5044,13 +5049,13 @@
         <v>12</v>
       </c>
       <c r="S70">
-        <v>41.79</v>
+        <v>41.792729999999999</v>
       </c>
       <c r="T70">
-        <v>-87.62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.622029999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -5106,13 +5111,13 @@
         <v>1</v>
       </c>
       <c r="S71">
-        <v>41.79</v>
+        <v>41.793790000000001</v>
       </c>
       <c r="T71">
-        <v>-87.72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.724530000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -5174,7 +5179,7 @@
         <v>-87.664199999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -5230,13 +5235,13 @@
         <v>14</v>
       </c>
       <c r="S73">
-        <v>41.88</v>
+        <v>41.879130000000004</v>
       </c>
       <c r="T73">
-        <v>-87.73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.730369999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -5292,13 +5297,13 @@
         <v>1</v>
       </c>
       <c r="S74">
-        <v>41.77</v>
+        <v>41.770479999999999</v>
       </c>
       <c r="T74">
-        <v>-87.72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.726690000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -5354,13 +5359,13 @@
         <v>10</v>
       </c>
       <c r="S75">
-        <v>41.68</v>
+        <v>41.672469999999997</v>
       </c>
       <c r="T75">
-        <v>-87.63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.635819999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -5416,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="S76">
-        <v>42</v>
+        <v>42.001950000000001</v>
       </c>
       <c r="T76">
-        <v>-87.69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.695890000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -5478,13 +5483,13 @@
         <v>7</v>
       </c>
       <c r="S77">
-        <v>41.9</v>
+        <v>41.90202</v>
       </c>
       <c r="T77">
-        <v>-87.68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-87.676630000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -5540,10 +5545,10 @@
         <v>14</v>
       </c>
       <c r="S78">
-        <v>41.78</v>
+        <v>41.780479999999997</v>
       </c>
       <c r="T78">
-        <v>-87.6</v>
+        <v>-87.595399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5551,5 +5556,6 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>